--- a/loaded_influencer_data/sherwinnee/sherwinnee_video.xlsx
+++ b/loaded_influencer_data/sherwinnee/sherwinnee_video.xlsx
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7457631130733350152</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C2" t="n">
         <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9.931766489764973</v>
+        <v>9.689629068887207</v>
       </c>
       <c r="I2" t="n">
-        <v>8.188021228203183</v>
+        <v>8.17562452687358</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.743745261561789</v>
+        <v>1.514004542013626</v>
       </c>
       <c r="L2" t="n">
-        <v>1.440485216072782</v>
+        <v>1.438304314912945</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -560,13 +560,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7456866489421827346</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="C3" t="n">
         <v>648</v>
@@ -587,19 +587,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>24.60260115606937</v>
+        <v>24.58483754512635</v>
       </c>
       <c r="I3" t="n">
-        <v>23.41040462427745</v>
+        <v>23.39350180505415</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.192196531791907</v>
+        <v>1.191335740072202</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8309248554913294</v>
+        <v>0.8303249097472925</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,19 +613,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7470682412792532231</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -635,25 +635,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>full face using @bomcosmetics_official @bomcosmetics_global products! 💋
-..
-#bom</t>
+          <t>💋
+#latinamakeup #trend #latinatrend #makeup #pinterestmakeup</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13.76306620209059</v>
+        <v>13.15345699831366</v>
       </c>
       <c r="I4" t="n">
-        <v>11.49825783972125</v>
+        <v>11.29848229342327</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.264808362369338</v>
+        <v>1.854974704890388</v>
       </c>
       <c r="L4" t="n">
-        <v>1.56794425087108</v>
+        <v>1.517706576728499</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -665,19 +664,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7470189163468295432</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C5" t="n">
         <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -692,19 +691,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4.678362573099415</v>
+        <v>4.341534008683068</v>
       </c>
       <c r="I5" t="n">
-        <v>3.801169590643275</v>
+        <v>3.762662807525326</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.5788712011577424</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4385964912280702</v>
+        <v>0.4341534008683068</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -716,13 +715,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7470188332723588359</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C6" t="n">
         <v>15</v>
@@ -743,19 +742,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.218362282878412</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="I6" t="n">
-        <v>3.722084367245657</v>
+        <v>3.676470588235294</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4962779156327544</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2481389578163772</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -767,13 +766,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7470186406862769416</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
@@ -794,19 +793,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4.285714285714286</v>
+        <v>4.189944134078212</v>
       </c>
       <c r="I7" t="n">
-        <v>3.428571428571429</v>
+        <v>3.35195530726257</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.8379888268156425</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2793296089385475</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -818,19 +817,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7465711876127673608</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C8" t="n">
         <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -845,19 +844,19 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>27.91666666666667</v>
+        <v>24.79338842975207</v>
       </c>
       <c r="I8" t="n">
-        <v>17.91666666666667</v>
+        <v>17.76859504132231</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>7.024793388429752</v>
       </c>
       <c r="L8" t="n">
-        <v>2.916666666666667</v>
+        <v>2.892561983471075</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -869,19 +868,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7464613986424622343</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C9" t="n">
         <v>47</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -896,19 +895,19 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>11.49228130360206</v>
+        <v>10.54421768707483</v>
       </c>
       <c r="I9" t="n">
-        <v>8.061749571183533</v>
+        <v>7.993197278911565</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.430531732418525</v>
+        <v>2.551020408163265</v>
       </c>
       <c r="L9" t="n">
-        <v>1.715265866209263</v>
+        <v>1.700680272108844</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -920,13 +919,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7462629790714039559</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C10" t="n">
         <v>77</v>
@@ -946,19 +945,19 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>22.38805970149254</v>
+        <v>22.26345083487941</v>
       </c>
       <c r="I10" t="n">
-        <v>14.36567164179104</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.022388059701493</v>
+        <v>7.977736549165121</v>
       </c>
       <c r="L10" t="n">
-        <v>3.358208955223881</v>
+        <v>3.339517625231911</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -970,7 +969,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7461926730081651986</t>
         </is>
@@ -1021,7 +1020,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7461288521563770130</t>
         </is>
@@ -1072,7 +1071,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7461055872454724871</t>
         </is>
@@ -1123,7 +1122,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7460613305699208456</t>
         </is>
@@ -1174,7 +1173,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7460599319289138450</t>
         </is>
@@ -1225,7 +1224,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7460597908593855752</t>
         </is>
@@ -1277,7 +1276,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7460168382927604999</t>
         </is>
@@ -1327,7 +1326,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7459483871126637831</t>
         </is>
@@ -1378,7 +1377,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7458118307829271826</t>
         </is>
@@ -1429,7 +1428,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7458104826287770888</t>
         </is>
@@ -1481,7 +1480,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7458101962190441735</t>
         </is>
@@ -1532,7 +1531,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7457956819156094216</t>
         </is>
@@ -1583,7 +1582,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7457270750097968391</t>
         </is>
@@ -1634,7 +1633,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7456921581835619602</t>
         </is>
@@ -1686,7 +1685,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7456891449896979719</t>
         </is>
@@ -1737,7 +1736,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/photo/7456886149252943122</t>
         </is>
@@ -1787,7 +1786,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7456149372426882322</t>
         </is>
@@ -1838,7 +1837,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7456100731091684615</t>
         </is>
@@ -1889,7 +1888,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7456097488726986002</t>
         </is>
@@ -1941,7 +1940,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7455353007807515922</t>
         </is>
@@ -1991,7 +1990,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7455274559541939464</t>
         </is>
@@ -2043,7 +2042,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7455123295415913736</t>
         </is>
@@ -2095,7 +2094,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/photo/7453030646357740808</t>
         </is>
@@ -2145,7 +2144,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7450584633873337608</t>
         </is>
@@ -2196,7 +2195,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7450007425429572882</t>
         </is>
@@ -2247,7 +2246,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7449738268129774855</t>
         </is>
@@ -2297,7 +2296,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7449509898624322824</t>
         </is>
@@ -2348,7 +2347,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/photo/7449504317461024008</t>
         </is>
@@ -2398,7 +2397,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7449471272376962312</t>
         </is>
@@ -2450,7 +2449,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7448927508688293128</t>
         </is>
@@ -2500,7 +2499,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7448922203619396882</t>
         </is>
@@ -2551,7 +2550,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7446813172717178120</t>
         </is>
@@ -2602,7 +2601,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7446753474584268050</t>
         </is>
@@ -2653,7 +2652,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7446319874613218578</t>
         </is>
@@ -2704,7 +2703,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7446148670552165650</t>
         </is>
@@ -2757,7 +2756,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7446141058498432274</t>
         </is>
@@ -2810,7 +2809,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7445326714244189458</t>
         </is>
@@ -2861,7 +2860,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7445275865501453575</t>
         </is>
@@ -2912,7 +2911,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7445262089901346056</t>
         </is>
@@ -2964,7 +2963,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherwinnee/video/7444959775307140360</t>
         </is>
